--- a/Gerenciamento de Projeto/Mais Dividendos - Checklist Verificacao de Projeto2.xlsx
+++ b/Gerenciamento de Projeto/Mais Dividendos - Checklist Verificacao de Projeto2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28409"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A99D52A9-F731-481F-81C9-0A1EB94F33A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4150BBB-D281-4AE7-9158-8EEE113F196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="2400" windowWidth="21600" windowHeight="11205" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="2400" windowWidth="21600" windowHeight="11205" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicadores" sheetId="6" r:id="rId1"/>
@@ -1793,7 +1793,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4097,7 +4097,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -4472,7 +4472,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -8153,7 +8153,7 @@
       </c>
       <c r="N29" s="28">
         <f ca="1">('Ver-Transição1'!$G$16/SUM('Ver-Transição1'!$G$16:'Ver-Transição1'!$J$16))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="28">
         <f ca="1">('Ver-Transição1'!$H$16/SUM('Ver-Transição1'!$G$16:'Ver-Transição1'!$J$16))</f>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="Q29" s="28">
         <f ca="1">('Ver-Transição1'!$J$16/SUM('Ver-Transição1'!$G$16:'Ver-Transição1'!$J$16))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -10220,8 +10220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -11165,8 +11165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -11446,13 +11446,13 @@
         <v>121</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16">
         <f>COUNTIF(D16,"Sim")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <f>COUNTIF(D16,"Parcialmente")</f>
@@ -11464,7 +11464,7 @@
       </c>
       <c r="J16">
         <f>COUNTIF(D16,"NA")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
